--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3252,28 +3252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>862.3672895808365</v>
+        <v>997.7555842403872</v>
       </c>
       <c r="AB2" t="n">
-        <v>1179.928970564239</v>
+        <v>1365.17320822745</v>
       </c>
       <c r="AC2" t="n">
-        <v>1067.318205654298</v>
+        <v>1234.882993266853</v>
       </c>
       <c r="AD2" t="n">
-        <v>862367.2895808365</v>
+        <v>997755.5842403872</v>
       </c>
       <c r="AE2" t="n">
-        <v>1179928.970564239</v>
+        <v>1365173.20822745</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.89339789591984e-07</v>
+        <v>1.334418078346972e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.66840277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1067318.205654298</v>
+        <v>1234882.993266853</v>
       </c>
     </row>
     <row r="3">
@@ -3358,28 +3358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>619.8500515183895</v>
+        <v>723.9096422181772</v>
       </c>
       <c r="AB3" t="n">
-        <v>848.1061863417607</v>
+        <v>990.4851091223505</v>
       </c>
       <c r="AC3" t="n">
-        <v>767.1641222418109</v>
+        <v>895.9546004622944</v>
       </c>
       <c r="AD3" t="n">
-        <v>619850.0515183895</v>
+        <v>723909.6422181772</v>
       </c>
       <c r="AE3" t="n">
-        <v>848106.1863417607</v>
+        <v>990485.1091223506</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.01211114576982e-06</v>
+        <v>1.711024109034008e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.01736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>767164.1222418109</v>
+        <v>895954.6004622944</v>
       </c>
     </row>
     <row r="4">
@@ -3464,28 +3464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>546.8115617439423</v>
+        <v>640.4566682391491</v>
       </c>
       <c r="AB4" t="n">
-        <v>748.1717024016068</v>
+        <v>876.3010684388727</v>
       </c>
       <c r="AC4" t="n">
-        <v>676.7672451899761</v>
+        <v>792.66812436334</v>
       </c>
       <c r="AD4" t="n">
-        <v>546811.5617439423</v>
+        <v>640456.668239149</v>
       </c>
       <c r="AE4" t="n">
-        <v>748171.7024016068</v>
+        <v>876301.0684388727</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.100505438083889e-06</v>
+        <v>1.860459045979923e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.41145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>676767.2451899761</v>
+        <v>792668.12436334</v>
       </c>
     </row>
     <row r="5">
@@ -3570,28 +3570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>508.9884983034383</v>
+        <v>602.7188561446658</v>
       </c>
       <c r="AB5" t="n">
-        <v>696.4205183665168</v>
+        <v>824.666529056432</v>
       </c>
       <c r="AC5" t="n">
-        <v>629.955121525952</v>
+        <v>745.9615129500282</v>
       </c>
       <c r="AD5" t="n">
-        <v>508988.4983034383</v>
+        <v>602718.8561446657</v>
       </c>
       <c r="AE5" t="n">
-        <v>696420.5183665168</v>
+        <v>824666.529056432</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.149172483099688e-06</v>
+        <v>1.942733100253023e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.63020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>629955.121525952</v>
+        <v>745961.5129500283</v>
       </c>
     </row>
     <row r="6">
@@ -3676,28 +3676,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>493.6333541939746</v>
+        <v>587.1931198346099</v>
       </c>
       <c r="AB6" t="n">
-        <v>675.4109327748006</v>
+        <v>803.4235316898688</v>
       </c>
       <c r="AC6" t="n">
-        <v>610.9506612959707</v>
+        <v>726.7459174373957</v>
       </c>
       <c r="AD6" t="n">
-        <v>493633.3541939746</v>
+        <v>587193.1198346099</v>
       </c>
       <c r="AE6" t="n">
-        <v>675410.9327748006</v>
+        <v>803423.5316898688</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.174404653681021e-06</v>
+        <v>1.985389336545216e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.25694444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>610950.6612959707</v>
+        <v>726745.9174373958</v>
       </c>
     </row>
     <row r="7">
@@ -3782,28 +3782,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>468.2593945433705</v>
+        <v>561.9044115300262</v>
       </c>
       <c r="AB7" t="n">
-        <v>640.6931617607487</v>
+        <v>768.8224053284663</v>
       </c>
       <c r="AC7" t="n">
-        <v>579.5463056208023</v>
+        <v>695.4470740129398</v>
       </c>
       <c r="AD7" t="n">
-        <v>468259.3945433705</v>
+        <v>561904.4115300262</v>
       </c>
       <c r="AE7" t="n">
-        <v>640693.1617607487</v>
+        <v>768822.4053284663</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.196182281019026e-06</v>
+        <v>2.022205496083251e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.93576388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>579546.3056208023</v>
+        <v>695447.0740129398</v>
       </c>
     </row>
     <row r="8">
@@ -3888,28 +3888,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>455.8031493595368</v>
+        <v>549.4481663461926</v>
       </c>
       <c r="AB8" t="n">
-        <v>623.649977569474</v>
+        <v>751.7792211371916</v>
       </c>
       <c r="AC8" t="n">
-        <v>564.1296990084836</v>
+        <v>680.030467400621</v>
       </c>
       <c r="AD8" t="n">
-        <v>455803.1493595368</v>
+        <v>549448.1663461926</v>
       </c>
       <c r="AE8" t="n">
-        <v>623649.977569474</v>
+        <v>751779.2211371916</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.211611018071997e-06</v>
+        <v>2.048288541586617e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH8" t="n">
-        <v>564129.6990084836</v>
+        <v>680030.4674006209</v>
       </c>
     </row>
     <row r="9">
@@ -3994,28 +3994,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>444.7658924149759</v>
+        <v>538.4109094016317</v>
       </c>
       <c r="AB9" t="n">
-        <v>608.548315688515</v>
+        <v>736.6775592562326</v>
       </c>
       <c r="AC9" t="n">
-        <v>550.4693185421278</v>
+        <v>666.3700869342653</v>
       </c>
       <c r="AD9" t="n">
-        <v>444765.8924149759</v>
+        <v>538410.9094016317</v>
       </c>
       <c r="AE9" t="n">
-        <v>608548.315688515</v>
+        <v>736677.5592562326</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.222394794953195e-06</v>
+        <v>2.066519051454325e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.57986111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>550469.3185421277</v>
+        <v>666370.0869342652</v>
       </c>
     </row>
     <row r="10">
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>435.2859911688817</v>
+        <v>518.5166134595077</v>
       </c>
       <c r="AB10" t="n">
-        <v>595.5774965798827</v>
+        <v>709.4573058738248</v>
       </c>
       <c r="AC10" t="n">
-        <v>538.7364162045644</v>
+        <v>641.7476963308088</v>
       </c>
       <c r="AD10" t="n">
-        <v>435285.9911688817</v>
+        <v>518516.6134595077</v>
       </c>
       <c r="AE10" t="n">
-        <v>595577.4965798827</v>
+        <v>709457.3058738247</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.228230172053411e-06</v>
+        <v>2.076384045971484e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.49305555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>538736.4162045644</v>
+        <v>641747.6963308088</v>
       </c>
     </row>
     <row r="11">
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>436.2271128518791</v>
+        <v>519.4577351425052</v>
       </c>
       <c r="AB11" t="n">
-        <v>596.8651807859181</v>
+        <v>710.7449900798603</v>
       </c>
       <c r="AC11" t="n">
-        <v>539.9012056372519</v>
+        <v>642.9124857634963</v>
       </c>
       <c r="AD11" t="n">
-        <v>436227.1128518791</v>
+        <v>519457.7351425051</v>
       </c>
       <c r="AE11" t="n">
-        <v>596865.1807859181</v>
+        <v>710744.9900798602</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.228230172053411e-06</v>
+        <v>2.076384045971484e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.49305555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>539901.205637252</v>
+        <v>642912.4857634963</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>685.0879157423569</v>
+        <v>806.0893890141069</v>
       </c>
       <c r="AB2" t="n">
-        <v>937.367510264437</v>
+        <v>1102.927064203094</v>
       </c>
       <c r="AC2" t="n">
-        <v>847.9064706883619</v>
+        <v>997.6652531634069</v>
       </c>
       <c r="AD2" t="n">
-        <v>685087.9157423569</v>
+        <v>806089.3890141069</v>
       </c>
       <c r="AE2" t="n">
-        <v>937367.5102644369</v>
+        <v>1102927.064203094</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.116497435525225e-07</v>
+        <v>1.578786827858527e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.99479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>847906.4706883619</v>
+        <v>997665.2531634069</v>
       </c>
     </row>
     <row r="3">
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>516.0440479518446</v>
+        <v>616.8643855358744</v>
       </c>
       <c r="AB3" t="n">
-        <v>706.0742326643485</v>
+        <v>844.0210664261965</v>
       </c>
       <c r="AC3" t="n">
-        <v>638.687498880272</v>
+        <v>763.4688804374863</v>
       </c>
       <c r="AD3" t="n">
-        <v>516044.0479518446</v>
+        <v>616864.3855358744</v>
       </c>
       <c r="AE3" t="n">
-        <v>706074.2326643486</v>
+        <v>844021.0664261965</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.117160297581804e-06</v>
+        <v>1.934688157269306e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.75868055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>638687.4988802719</v>
+        <v>763468.8804374863</v>
       </c>
     </row>
     <row r="4">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>468.3751264224547</v>
+        <v>559.190237017196</v>
       </c>
       <c r="AB4" t="n">
-        <v>640.851511223442</v>
+        <v>765.1087520190831</v>
       </c>
       <c r="AC4" t="n">
-        <v>579.689542433021</v>
+        <v>692.0878465632589</v>
       </c>
       <c r="AD4" t="n">
-        <v>468375.1264224547</v>
+        <v>559190.2370171959</v>
       </c>
       <c r="AE4" t="n">
-        <v>640851.511223442</v>
+        <v>765108.7520190831</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.19237653254846e-06</v>
+        <v>2.064946956601296e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>579689.542433021</v>
+        <v>692087.8465632589</v>
       </c>
     </row>
     <row r="5">
@@ -4821,28 +4821,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>447.3790648261082</v>
+        <v>528.1036970855404</v>
       </c>
       <c r="AB5" t="n">
-        <v>612.1237734664568</v>
+        <v>722.5747766432418</v>
       </c>
       <c r="AC5" t="n">
-        <v>553.7035396479292</v>
+        <v>653.6132541004785</v>
       </c>
       <c r="AD5" t="n">
-        <v>447379.0648261082</v>
+        <v>528103.6970855404</v>
       </c>
       <c r="AE5" t="n">
-        <v>612123.7734664568</v>
+        <v>722574.7766432418</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.231445511096149e-06</v>
+        <v>2.132606262321733e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.02256944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>553703.5396479293</v>
+        <v>653613.2541004785</v>
       </c>
     </row>
     <row r="6">
@@ -4927,28 +4927,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>418.2941809526826</v>
+        <v>509.0239506928522</v>
       </c>
       <c r="AB6" t="n">
-        <v>572.3285522163185</v>
+        <v>696.469025889762</v>
       </c>
       <c r="AC6" t="n">
-        <v>517.7063184609602</v>
+        <v>629.9989995592593</v>
       </c>
       <c r="AD6" t="n">
-        <v>418294.1809526826</v>
+        <v>509023.9506928521</v>
       </c>
       <c r="AE6" t="n">
-        <v>572328.5522163184</v>
+        <v>696469.025889762</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.260855904094347e-06</v>
+        <v>2.183538916442557e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.62326388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>517706.3184609602</v>
+        <v>629998.9995592594</v>
       </c>
     </row>
     <row r="7">
@@ -5033,28 +5033,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>403.7018323386824</v>
+        <v>484.3411237435429</v>
       </c>
       <c r="AB7" t="n">
-        <v>552.3626570736575</v>
+        <v>662.6968931282447</v>
       </c>
       <c r="AC7" t="n">
-        <v>499.6459403284051</v>
+        <v>599.4500317490154</v>
       </c>
       <c r="AD7" t="n">
-        <v>403701.8323386824</v>
+        <v>484341.1237435429</v>
       </c>
       <c r="AE7" t="n">
-        <v>552362.6570736575</v>
+        <v>662696.8931282447</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.278482822722167e-06</v>
+        <v>2.214065055611851e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.39756944444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>499645.9403284051</v>
+        <v>599450.0317490153</v>
       </c>
     </row>
     <row r="8">
@@ -5139,28 +5139,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>399.9278583510867</v>
+        <v>480.5671497559472</v>
       </c>
       <c r="AB8" t="n">
-        <v>547.1989393678475</v>
+        <v>657.5331754224347</v>
       </c>
       <c r="AC8" t="n">
-        <v>494.9750405931143</v>
+        <v>594.7791320137245</v>
       </c>
       <c r="AD8" t="n">
-        <v>399927.8583510867</v>
+        <v>480567.1497559472</v>
       </c>
       <c r="AE8" t="n">
-        <v>547198.9393678475</v>
+        <v>657533.1754224347</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.28154942363413e-06</v>
+        <v>2.219375767494729e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>494975.0405931143</v>
+        <v>594779.1320137245</v>
       </c>
     </row>
   </sheetData>
@@ -5436,28 +5436,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>380.8254453206308</v>
+        <v>462.7784844890485</v>
       </c>
       <c r="AB2" t="n">
-        <v>521.0621751205923</v>
+        <v>633.1939388237392</v>
       </c>
       <c r="AC2" t="n">
-        <v>471.3327324424382</v>
+        <v>572.7627979956756</v>
       </c>
       <c r="AD2" t="n">
-        <v>380825.4453206308</v>
+        <v>462778.4844890485</v>
       </c>
       <c r="AE2" t="n">
-        <v>521062.1751205923</v>
+        <v>633193.9388237393</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.292608389639403e-06</v>
+        <v>2.445893229234599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.09027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>471332.7324424381</v>
+        <v>572762.7979956756</v>
       </c>
     </row>
     <row r="3">
@@ -5542,28 +5542,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>317.9104634848431</v>
+        <v>399.8634131447099</v>
       </c>
       <c r="AB3" t="n">
-        <v>434.979121359762</v>
+        <v>547.1107625933608</v>
       </c>
       <c r="AC3" t="n">
-        <v>393.4653245142167</v>
+        <v>494.8952792862278</v>
       </c>
       <c r="AD3" t="n">
-        <v>317910.4634848431</v>
+        <v>399863.4131447098</v>
       </c>
       <c r="AE3" t="n">
-        <v>434979.121359762</v>
+        <v>547110.7625933609</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.41649660774842e-06</v>
+        <v>2.680316397367769e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.51041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>393465.3245142167</v>
+        <v>494895.2792862278</v>
       </c>
     </row>
     <row r="4">
@@ -5648,28 +5648,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>318.6644814094278</v>
+        <v>391.5021549651302</v>
       </c>
       <c r="AB4" t="n">
-        <v>436.0108019491018</v>
+        <v>535.6705202793827</v>
       </c>
       <c r="AC4" t="n">
-        <v>394.3985429560827</v>
+        <v>484.5468776422148</v>
       </c>
       <c r="AD4" t="n">
-        <v>318664.4814094278</v>
+        <v>391502.1549651301</v>
       </c>
       <c r="AE4" t="n">
-        <v>436010.8019491018</v>
+        <v>535670.5202793827</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.41894850593196e-06</v>
+        <v>2.68495591635431e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>394398.5429560827</v>
+        <v>484546.8776422148</v>
       </c>
     </row>
   </sheetData>
@@ -5945,28 +5945,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>474.4137691813855</v>
+        <v>569.38007697111</v>
       </c>
       <c r="AB2" t="n">
-        <v>649.1138486523276</v>
+        <v>779.05094058804</v>
       </c>
       <c r="AC2" t="n">
-        <v>587.1633339739573</v>
+        <v>704.6994122231791</v>
       </c>
       <c r="AD2" t="n">
-        <v>474413.7691813855</v>
+        <v>569380.0769711101</v>
       </c>
       <c r="AE2" t="n">
-        <v>649113.8486523277</v>
+        <v>779050.94058804</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.140657635812392e-06</v>
+        <v>2.078030490378982e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.61805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>587163.3339739572</v>
+        <v>704699.4122231791</v>
       </c>
     </row>
     <row r="3">
@@ -6051,28 +6051,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>387.9689058194305</v>
+        <v>463.9420415597612</v>
       </c>
       <c r="AB3" t="n">
-        <v>530.8361729222853</v>
+        <v>634.7859689404036</v>
       </c>
       <c r="AC3" t="n">
-        <v>480.1739136118296</v>
+        <v>574.2028869924338</v>
       </c>
       <c r="AD3" t="n">
-        <v>387968.9058194305</v>
+        <v>463942.0415597612</v>
       </c>
       <c r="AE3" t="n">
-        <v>530836.1729222853</v>
+        <v>634785.9689404035</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.306528825508965e-06</v>
+        <v>2.380211774966994e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.12673611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>480173.9136118296</v>
+        <v>574202.8869924338</v>
       </c>
     </row>
     <row r="4">
@@ -6157,28 +6157,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>350.6903288809713</v>
+        <v>426.5781237667304</v>
       </c>
       <c r="AB4" t="n">
-        <v>479.829979340342</v>
+        <v>583.6630082362627</v>
       </c>
       <c r="AC4" t="n">
-        <v>434.0356795577046</v>
+        <v>527.95902990637</v>
       </c>
       <c r="AD4" t="n">
-        <v>350690.3288809713</v>
+        <v>426578.1237667304</v>
       </c>
       <c r="AE4" t="n">
-        <v>479829.979340342</v>
+        <v>583663.0082362627</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.363907111175565e-06</v>
+        <v>2.484742550334969e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.40625</v>
       </c>
       <c r="AH4" t="n">
-        <v>434035.6795577046</v>
+        <v>527959.02990637</v>
       </c>
     </row>
     <row r="5">
@@ -6263,28 +6263,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>348.4100813846934</v>
+        <v>424.2978762704524</v>
       </c>
       <c r="AB5" t="n">
-        <v>476.7100441185148</v>
+        <v>580.5430730144353</v>
       </c>
       <c r="AC5" t="n">
-        <v>431.213506574592</v>
+        <v>525.1368569232574</v>
       </c>
       <c r="AD5" t="n">
-        <v>348410.0813846934</v>
+        <v>424297.8762704525</v>
       </c>
       <c r="AE5" t="n">
-        <v>476710.0441185148</v>
+        <v>580543.0730144354</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.368263324238303e-06</v>
+        <v>2.492678624475664e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>431213.506574592</v>
+        <v>525136.8569232573</v>
       </c>
     </row>
   </sheetData>
@@ -6560,28 +6560,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>311.1585940111324</v>
+        <v>381.579883256222</v>
       </c>
       <c r="AB2" t="n">
-        <v>425.7409156743725</v>
+        <v>522.0944303875209</v>
       </c>
       <c r="AC2" t="n">
-        <v>385.1088002135376</v>
+        <v>472.2664707154704</v>
       </c>
       <c r="AD2" t="n">
-        <v>311158.5940111324</v>
+        <v>381579.883256222</v>
       </c>
       <c r="AE2" t="n">
-        <v>425740.9156743725</v>
+        <v>522094.4303875209</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.42478218102557e-06</v>
+        <v>2.792114009325065e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.04861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>385108.8002135376</v>
+        <v>472266.4707154704</v>
       </c>
     </row>
     <row r="3">
@@ -6666,28 +6666,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.0257237651695</v>
+        <v>374.1642326142037</v>
       </c>
       <c r="AB3" t="n">
-        <v>403.6672108718423</v>
+        <v>511.9480100236946</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.1417788167216</v>
+        <v>463.0884104705772</v>
       </c>
       <c r="AD3" t="n">
-        <v>295025.7237651695</v>
+        <v>374164.2326142037</v>
       </c>
       <c r="AE3" t="n">
-        <v>403667.2108718423</v>
+        <v>511948.0100236946</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.45100276245778e-06</v>
+        <v>2.843497900648595e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.74479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>365141.7788167216</v>
+        <v>463088.4104705772</v>
       </c>
     </row>
   </sheetData>
@@ -6963,28 +6963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>730.7876225373668</v>
+        <v>852.8961004175598</v>
       </c>
       <c r="AB2" t="n">
-        <v>999.8958652301421</v>
+        <v>1166.970071711668</v>
       </c>
       <c r="AC2" t="n">
-        <v>904.4672072152373</v>
+        <v>1055.596085920288</v>
       </c>
       <c r="AD2" t="n">
-        <v>730787.6225373668</v>
+        <v>852896.1004175597</v>
       </c>
       <c r="AE2" t="n">
-        <v>999895.8652301421</v>
+        <v>1166970.071711668</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.778797618988632e-07</v>
+        <v>1.510375632606609e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.66319444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>904467.2072152373</v>
+        <v>1055596.085920288</v>
       </c>
     </row>
     <row r="3">
@@ -7069,28 +7069,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>547.7796494248392</v>
+        <v>639.3610973435351</v>
       </c>
       <c r="AB3" t="n">
-        <v>749.4962826756245</v>
+        <v>874.8020600063169</v>
       </c>
       <c r="AC3" t="n">
-        <v>677.9654093817016</v>
+        <v>791.3121791917158</v>
       </c>
       <c r="AD3" t="n">
-        <v>547779.6494248393</v>
+        <v>639361.0973435352</v>
       </c>
       <c r="AE3" t="n">
-        <v>749496.2826756245</v>
+        <v>874802.0600063169</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.087311252825616e-06</v>
+        <v>1.870698576960668e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.10590277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>677965.4093817016</v>
+        <v>791312.1791917158</v>
       </c>
     </row>
     <row r="4">
@@ -7175,28 +7175,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>485.3139012992899</v>
+        <v>576.8952597094348</v>
       </c>
       <c r="AB4" t="n">
-        <v>664.0278902959346</v>
+        <v>789.3335451570788</v>
       </c>
       <c r="AC4" t="n">
-        <v>600.6540004150872</v>
+        <v>714.0006594438748</v>
       </c>
       <c r="AD4" t="n">
-        <v>485313.9012992899</v>
+        <v>576895.2597094347</v>
       </c>
       <c r="AE4" t="n">
-        <v>664027.8902959346</v>
+        <v>789333.5451570788</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.168169229041509e-06</v>
+        <v>2.009813205499559e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>600654.0004150872</v>
+        <v>714000.6594438748</v>
       </c>
     </row>
     <row r="5">
@@ -7281,28 +7281,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>464.8070062117599</v>
+        <v>556.2177724213125</v>
       </c>
       <c r="AB5" t="n">
-        <v>635.9694517368155</v>
+        <v>761.0416948231128</v>
       </c>
       <c r="AC5" t="n">
-        <v>575.2734198517846</v>
+        <v>688.4089435979212</v>
       </c>
       <c r="AD5" t="n">
-        <v>464807.0062117599</v>
+        <v>556217.7724213125</v>
       </c>
       <c r="AE5" t="n">
-        <v>635969.4517368155</v>
+        <v>761041.6948231128</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.206600099063032e-06</v>
+        <v>2.075932795151366e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.21354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>575273.4198517846</v>
+        <v>688408.9435979212</v>
       </c>
     </row>
     <row r="6">
@@ -7387,28 +7387,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>435.79373519355</v>
+        <v>527.2897527491232</v>
       </c>
       <c r="AB6" t="n">
-        <v>596.2722143545195</v>
+        <v>721.4611020934659</v>
       </c>
       <c r="AC6" t="n">
-        <v>539.3648310898323</v>
+        <v>652.6058670866812</v>
       </c>
       <c r="AD6" t="n">
-        <v>435793.73519355</v>
+        <v>527289.7527491231</v>
       </c>
       <c r="AE6" t="n">
-        <v>596272.2143545195</v>
+        <v>721461.1020934659</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.236177032653692e-06</v>
+        <v>2.126819353563342e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.80555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>539364.8310898322</v>
+        <v>652605.8670866812</v>
       </c>
     </row>
     <row r="7">
@@ -7493,28 +7493,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>421.0010911864839</v>
+        <v>512.4971087420571</v>
       </c>
       <c r="AB7" t="n">
-        <v>576.0322662186567</v>
+        <v>701.2211539576031</v>
       </c>
       <c r="AC7" t="n">
-        <v>521.0565551971106</v>
+        <v>634.2975911939595</v>
       </c>
       <c r="AD7" t="n">
-        <v>421001.0911864839</v>
+        <v>512497.1087420571</v>
       </c>
       <c r="AE7" t="n">
-        <v>576032.2662186567</v>
+        <v>701221.153957603</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.254052412420864e-06</v>
+        <v>2.157573608525921e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.5625</v>
       </c>
       <c r="AH7" t="n">
-        <v>521056.5551971106</v>
+        <v>634297.5911939596</v>
       </c>
     </row>
     <row r="8">
@@ -7599,28 +7599,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>409.7245926850481</v>
+        <v>491.0449932591562</v>
       </c>
       <c r="AB8" t="n">
-        <v>560.6032634849889</v>
+        <v>671.8694231533566</v>
       </c>
       <c r="AC8" t="n">
-        <v>507.1000748296029</v>
+        <v>607.7471483822574</v>
       </c>
       <c r="AD8" t="n">
-        <v>409724.5926850481</v>
+        <v>491044.9932591562</v>
       </c>
       <c r="AE8" t="n">
-        <v>560603.2634849889</v>
+        <v>671869.4231533566</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.267261528393392e-06</v>
+        <v>2.18029964432156e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.38888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>507100.0748296028</v>
+        <v>607747.1483822573</v>
       </c>
     </row>
     <row r="9">
@@ -7705,28 +7705,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>410.5204213059056</v>
+        <v>491.8408218800137</v>
       </c>
       <c r="AB9" t="n">
-        <v>561.6921513135269</v>
+        <v>672.9583109818946</v>
       </c>
       <c r="AC9" t="n">
-        <v>508.0850407320488</v>
+        <v>608.7321142847034</v>
       </c>
       <c r="AD9" t="n">
-        <v>410520.4213059056</v>
+        <v>491840.8218800137</v>
       </c>
       <c r="AE9" t="n">
-        <v>561692.1513135269</v>
+        <v>672958.3109818946</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.266423993866149e-06</v>
+        <v>2.178858681906982e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.40625</v>
       </c>
       <c r="AH9" t="n">
-        <v>508085.0407320488</v>
+        <v>608732.1142847034</v>
       </c>
     </row>
   </sheetData>
@@ -8002,28 +8002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>289.6288689668619</v>
+        <v>358.5687623387831</v>
       </c>
       <c r="AB2" t="n">
-        <v>396.2829960443679</v>
+        <v>490.609599569274</v>
       </c>
       <c r="AC2" t="n">
-        <v>358.4623030885708</v>
+        <v>443.7865079612793</v>
       </c>
       <c r="AD2" t="n">
-        <v>289628.8689668619</v>
+        <v>358568.7623387831</v>
       </c>
       <c r="AE2" t="n">
-        <v>396282.9960443679</v>
+        <v>490609.599569274</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.459327591091048e-06</v>
+        <v>2.925456198348298e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>358462.3030885708</v>
+        <v>443786.5079612793</v>
       </c>
     </row>
     <row r="3">
@@ -8108,28 +8108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.3205357737177</v>
+        <v>360.2604291456391</v>
       </c>
       <c r="AB3" t="n">
-        <v>398.5976092005805</v>
+        <v>492.9242127254865</v>
       </c>
       <c r="AC3" t="n">
-        <v>360.5560128137344</v>
+        <v>445.8802176864429</v>
       </c>
       <c r="AD3" t="n">
-        <v>291320.5357737177</v>
+        <v>360260.4291456391</v>
       </c>
       <c r="AE3" t="n">
-        <v>398597.6092005805</v>
+        <v>492924.2127254865</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.458812109780172e-06</v>
+        <v>2.924422833389504e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.03993055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>360556.0128137344</v>
+        <v>445880.2176864429</v>
       </c>
     </row>
   </sheetData>
@@ -8405,28 +8405,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>579.5442451286679</v>
+        <v>687.33042211554</v>
       </c>
       <c r="AB2" t="n">
-        <v>792.9580038726623</v>
+        <v>940.4358064166252</v>
       </c>
       <c r="AC2" t="n">
-        <v>717.2792049066031</v>
+        <v>850.6819329621657</v>
       </c>
       <c r="AD2" t="n">
-        <v>579544.2451286678</v>
+        <v>687330.42211554</v>
       </c>
       <c r="AE2" t="n">
-        <v>792958.0038726623</v>
+        <v>940435.8064166252</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.018892419171969e-06</v>
+        <v>1.804534185090528e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>717279.2049066031</v>
+        <v>850681.9329621657</v>
       </c>
     </row>
     <row r="3">
@@ -8511,28 +8511,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>448.757732123429</v>
+        <v>546.7295678574352</v>
       </c>
       <c r="AB3" t="n">
-        <v>614.0101268851594</v>
+        <v>748.0595147487728</v>
       </c>
       <c r="AC3" t="n">
-        <v>555.4098621438646</v>
+        <v>676.6657645692723</v>
       </c>
       <c r="AD3" t="n">
-        <v>448757.732123429</v>
+        <v>546729.5678574352</v>
       </c>
       <c r="AE3" t="n">
-        <v>614010.1268851594</v>
+        <v>748059.5147487728</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.202220907436606e-06</v>
+        <v>2.129222560378822e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.96006944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>555409.8621438646</v>
+        <v>676665.7645692723</v>
       </c>
     </row>
     <row r="4">
@@ -8617,28 +8617,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>405.5569048012078</v>
+        <v>493.7998296454707</v>
       </c>
       <c r="AB4" t="n">
-        <v>554.9008490569057</v>
+        <v>675.638711831916</v>
       </c>
       <c r="AC4" t="n">
-        <v>501.941890831147</v>
+        <v>611.1567014395649</v>
       </c>
       <c r="AD4" t="n">
-        <v>405556.9048012078</v>
+        <v>493799.8296454707</v>
       </c>
       <c r="AE4" t="n">
-        <v>554900.8490569057</v>
+        <v>675638.711831916</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.273646621890097e-06</v>
+        <v>2.255722808099367e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>501941.890831147</v>
+        <v>611156.7014395649</v>
       </c>
     </row>
     <row r="5">
@@ -8723,28 +8723,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>386.0823203080365</v>
+        <v>474.3252451522995</v>
       </c>
       <c r="AB5" t="n">
-        <v>528.2548633953173</v>
+        <v>648.9927261703275</v>
       </c>
       <c r="AC5" t="n">
-        <v>477.8389606432248</v>
+        <v>587.0537712516428</v>
       </c>
       <c r="AD5" t="n">
-        <v>386082.3203080365</v>
+        <v>474325.2451522995</v>
       </c>
       <c r="AE5" t="n">
-        <v>528254.8633953173</v>
+        <v>648992.7261703275</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.306759692575432e-06</v>
+        <v>2.314368516812723e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.52777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>477838.9606432248</v>
+        <v>587053.7712516428</v>
       </c>
     </row>
     <row r="6">
@@ -8829,28 +8829,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>375.0372996606158</v>
+        <v>453.4660622691147</v>
       </c>
       <c r="AB6" t="n">
-        <v>513.1425788735951</v>
+        <v>620.4522719073528</v>
       </c>
       <c r="AC6" t="n">
-        <v>464.1689713460312</v>
+        <v>561.2371778867472</v>
       </c>
       <c r="AD6" t="n">
-        <v>375037.2996606157</v>
+        <v>453466.0622691147</v>
       </c>
       <c r="AE6" t="n">
-        <v>513142.5788735951</v>
+        <v>620452.2719073528</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.321960358382148e-06</v>
+        <v>2.34129002547077e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.33680555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>464168.9713460312</v>
+        <v>561237.1778867472</v>
       </c>
     </row>
     <row r="7">
@@ -8935,28 +8935,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>376.2948929266741</v>
+        <v>454.7236555351731</v>
       </c>
       <c r="AB7" t="n">
-        <v>514.8632734613154</v>
+        <v>622.1729664950732</v>
       </c>
       <c r="AC7" t="n">
-        <v>465.7254452573096</v>
+        <v>562.7936517980255</v>
       </c>
       <c r="AD7" t="n">
-        <v>376294.8929266741</v>
+        <v>454723.6555351731</v>
       </c>
       <c r="AE7" t="n">
-        <v>514863.2734613154</v>
+        <v>622172.9664950732</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.321711574981057e-06</v>
+        <v>2.340849411581113e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.33680555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>465725.4452573095</v>
+        <v>562793.6517980255</v>
       </c>
     </row>
   </sheetData>
@@ -9232,28 +9232,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>653.298819554105</v>
+        <v>763.2376768401665</v>
       </c>
       <c r="AB2" t="n">
-        <v>893.8722664237257</v>
+        <v>1044.295461122591</v>
       </c>
       <c r="AC2" t="n">
-        <v>808.5623518738498</v>
+        <v>944.6293679909355</v>
       </c>
       <c r="AD2" t="n">
-        <v>653298.8195541049</v>
+        <v>763237.6768401664</v>
       </c>
       <c r="AE2" t="n">
-        <v>893872.2664237258</v>
+        <v>1044295.461122591</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.442703917136106e-07</v>
+        <v>1.646725110209234e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.40451388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>808562.3518738499</v>
+        <v>944629.3679909356</v>
       </c>
     </row>
     <row r="3">
@@ -9338,28 +9338,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>496.3985131147037</v>
+        <v>596.1644969977963</v>
       </c>
       <c r="AB3" t="n">
-        <v>679.1943452003439</v>
+        <v>815.6985657137674</v>
       </c>
       <c r="AC3" t="n">
-        <v>614.3729901496729</v>
+        <v>737.849439442172</v>
       </c>
       <c r="AD3" t="n">
-        <v>496398.5131147037</v>
+        <v>596164.4969977962</v>
       </c>
       <c r="AE3" t="n">
-        <v>679194.345200344</v>
+        <v>815698.5657137674</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.145175873888828e-06</v>
+        <v>1.997086728215958e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.48090277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>614372.9901496728</v>
+        <v>737849.4394421719</v>
       </c>
     </row>
     <row r="4">
@@ -9444,28 +9444,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>451.5588348167361</v>
+        <v>541.4079678605747</v>
       </c>
       <c r="AB4" t="n">
-        <v>617.8427191660717</v>
+        <v>740.778266860646</v>
       </c>
       <c r="AC4" t="n">
-        <v>558.8766771965636</v>
+        <v>670.0794287602924</v>
       </c>
       <c r="AD4" t="n">
-        <v>451558.8348167361</v>
+        <v>541407.9678605747</v>
       </c>
       <c r="AE4" t="n">
-        <v>617842.7191660716</v>
+        <v>740778.266860646</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.21676764786949e-06</v>
+        <v>2.12193653070149e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.38715277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>558876.6771965636</v>
+        <v>670079.4287602925</v>
       </c>
     </row>
     <row r="5">
@@ -9550,28 +9550,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>419.3479156943398</v>
+        <v>509.2823000841989</v>
       </c>
       <c r="AB5" t="n">
-        <v>573.7703185773496</v>
+        <v>696.8225109245733</v>
       </c>
       <c r="AC5" t="n">
-        <v>519.0104846640264</v>
+        <v>630.3187484784677</v>
       </c>
       <c r="AD5" t="n">
-        <v>419347.9156943398</v>
+        <v>509282.3000841989</v>
       </c>
       <c r="AE5" t="n">
-        <v>573770.3185773497</v>
+        <v>696822.5109245733</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.257743395932647e-06</v>
+        <v>2.193394657353917e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.82291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>519010.4846640264</v>
+        <v>630318.7484784677</v>
       </c>
     </row>
     <row r="6">
@@ -9656,28 +9656,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>403.0322287358923</v>
+        <v>492.9666131257515</v>
       </c>
       <c r="AB6" t="n">
-        <v>551.446475883494</v>
+        <v>674.4986682307176</v>
       </c>
       <c r="AC6" t="n">
-        <v>498.8171981851624</v>
+        <v>610.1254619996037</v>
       </c>
       <c r="AD6" t="n">
-        <v>403032.2287358923</v>
+        <v>492966.6131257515</v>
       </c>
       <c r="AE6" t="n">
-        <v>551446.475883494</v>
+        <v>674498.6682307177</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.281972957845067e-06</v>
+        <v>2.235648897623109e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.50173611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>498817.1981851624</v>
+        <v>610125.4619996037</v>
       </c>
     </row>
     <row r="7">
@@ -9762,28 +9762,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>392.5246072004937</v>
+        <v>472.4568894050782</v>
       </c>
       <c r="AB7" t="n">
-        <v>537.069484535216</v>
+        <v>646.4363594109413</v>
       </c>
       <c r="AC7" t="n">
-        <v>485.81232671293</v>
+        <v>584.741380547889</v>
       </c>
       <c r="AD7" t="n">
-        <v>392524.6072004937</v>
+        <v>472456.8894050782</v>
       </c>
       <c r="AE7" t="n">
-        <v>537069.484535216</v>
+        <v>646436.3594109414</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.293405215930505e-06</v>
+        <v>2.255585757468432e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.36284722222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>485812.32671293</v>
+        <v>584741.3805478889</v>
       </c>
     </row>
     <row r="8">
@@ -9868,28 +9868,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>393.6582967610652</v>
+        <v>473.5905789656498</v>
       </c>
       <c r="AB8" t="n">
-        <v>538.6206486068437</v>
+        <v>647.987523482569</v>
       </c>
       <c r="AC8" t="n">
-        <v>487.2154498626339</v>
+        <v>586.1445036975929</v>
       </c>
       <c r="AD8" t="n">
-        <v>393658.2967610653</v>
+        <v>473590.5789656498</v>
       </c>
       <c r="AE8" t="n">
-        <v>538620.6486068437</v>
+        <v>647987.523482569</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.293673349915451e-06</v>
+        <v>2.256053359724933e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>487215.4498626339</v>
+        <v>586144.5036975929</v>
       </c>
     </row>
   </sheetData>
@@ -10165,28 +10165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>813.9853540952915</v>
+        <v>948.2865424507614</v>
       </c>
       <c r="AB2" t="n">
-        <v>1113.730671972565</v>
+        <v>1297.487482830787</v>
       </c>
       <c r="AC2" t="n">
-        <v>1007.437779770319</v>
+        <v>1173.657098504536</v>
       </c>
       <c r="AD2" t="n">
-        <v>813985.3540952916</v>
+        <v>948286.5424507614</v>
       </c>
       <c r="AE2" t="n">
-        <v>1113730.671972565</v>
+        <v>1297487.482830788</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.170839004287212e-07</v>
+        <v>1.388988477366759e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>25</v>
       </c>
       <c r="AH2" t="n">
-        <v>1007437.779770319</v>
+        <v>1173657.098504536</v>
       </c>
     </row>
     <row r="3">
@@ -10271,28 +10271,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>588.542340535497</v>
+        <v>691.9165937739906</v>
       </c>
       <c r="AB3" t="n">
-        <v>805.2695949762387</v>
+        <v>946.7108088073311</v>
       </c>
       <c r="AC3" t="n">
-        <v>728.4157950346807</v>
+        <v>856.358057931724</v>
       </c>
       <c r="AD3" t="n">
-        <v>588542.3405354971</v>
+        <v>691916.5937739906</v>
       </c>
       <c r="AE3" t="n">
-        <v>805269.5949762388</v>
+        <v>946710.8088073311</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.036436388441189e-06</v>
+        <v>1.761873169099375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.70486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>728415.7950346807</v>
+        <v>856358.057931724</v>
       </c>
     </row>
     <row r="4">
@@ -10377,28 +10377,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>529.9076320498718</v>
+        <v>622.8592086184955</v>
       </c>
       <c r="AB4" t="n">
-        <v>725.0430000454339</v>
+        <v>852.2234478407677</v>
       </c>
       <c r="AC4" t="n">
-        <v>655.8459137253386</v>
+        <v>770.8884380819653</v>
       </c>
       <c r="AD4" t="n">
-        <v>529907.6320498718</v>
+        <v>622859.2086184955</v>
       </c>
       <c r="AE4" t="n">
-        <v>725043.0000454339</v>
+        <v>852223.4478407677</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.122125733216626e-06</v>
+        <v>1.907539376038149e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>655845.9137253386</v>
+        <v>770888.4380819653</v>
       </c>
     </row>
     <row r="5">
@@ -10483,28 +10483,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>492.8633890619497</v>
+        <v>585.7296247760017</v>
       </c>
       <c r="AB5" t="n">
-        <v>674.3574325126997</v>
+        <v>801.4211131858358</v>
       </c>
       <c r="AC5" t="n">
-        <v>609.9977056202879</v>
+        <v>724.9346069449757</v>
       </c>
       <c r="AD5" t="n">
-        <v>492863.3890619497</v>
+        <v>585729.6247760018</v>
       </c>
       <c r="AE5" t="n">
-        <v>674357.4325126997</v>
+        <v>801421.1131858358</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.169652497754349e-06</v>
+        <v>1.988331725850429e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.46527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>609997.7056202879</v>
+        <v>724934.6069449757</v>
       </c>
     </row>
     <row r="6">
@@ -10589,28 +10589,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>478.0713645999812</v>
+        <v>560.7708566993272</v>
       </c>
       <c r="AB6" t="n">
-        <v>654.1183320657718</v>
+        <v>767.2714256001941</v>
       </c>
       <c r="AC6" t="n">
-        <v>591.6901965142589</v>
+        <v>694.04411761312</v>
       </c>
       <c r="AD6" t="n">
-        <v>478071.3645999812</v>
+        <v>560770.8566993271</v>
       </c>
       <c r="AE6" t="n">
-        <v>654118.3320657718</v>
+        <v>767271.4256001941</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.193015902301853e-06</v>
+        <v>2.028047965139337e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.11805555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>591690.1965142589</v>
+        <v>694044.11761312</v>
       </c>
     </row>
     <row r="7">
@@ -10695,28 +10695,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>453.3628463818688</v>
+        <v>546.3143334419416</v>
       </c>
       <c r="AB7" t="n">
-        <v>620.3110473768595</v>
+        <v>747.4913727026449</v>
       </c>
       <c r="AC7" t="n">
-        <v>561.1094316272342</v>
+        <v>676.1518452026344</v>
       </c>
       <c r="AD7" t="n">
-        <v>453362.8463818689</v>
+        <v>546314.3334419415</v>
       </c>
       <c r="AE7" t="n">
-        <v>620311.0473768595</v>
+        <v>747491.3727026449</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.215038205077747e-06</v>
+        <v>2.065484420299878e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.80555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>561109.4316272342</v>
+        <v>676151.8452026343</v>
       </c>
     </row>
     <row r="8">
@@ -10801,28 +10801,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>440.3429871083355</v>
+        <v>533.2944741684081</v>
       </c>
       <c r="AB8" t="n">
-        <v>602.4967015231589</v>
+        <v>729.6770268489443</v>
       </c>
       <c r="AC8" t="n">
-        <v>544.9952619392193</v>
+        <v>660.0376755146194</v>
       </c>
       <c r="AD8" t="n">
-        <v>440342.9871083355</v>
+        <v>533294.4741684081</v>
       </c>
       <c r="AE8" t="n">
-        <v>602496.7015231589</v>
+        <v>729677.0268489443</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.230425583299366e-06</v>
+        <v>2.091641943456923e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>544995.2619392193</v>
+        <v>660037.6755146194</v>
       </c>
     </row>
     <row r="9">
@@ -10907,28 +10907,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>428.7419404280255</v>
+        <v>511.3560916727998</v>
       </c>
       <c r="AB9" t="n">
-        <v>586.6236376531003</v>
+        <v>699.6599640653249</v>
       </c>
       <c r="AC9" t="n">
-        <v>530.6371010069341</v>
+        <v>632.8853990738564</v>
       </c>
       <c r="AD9" t="n">
-        <v>428741.9404280255</v>
+        <v>511356.0916727998</v>
       </c>
       <c r="AE9" t="n">
-        <v>586623.6376531003</v>
+        <v>699659.9640653249</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.240683835447112e-06</v>
+        <v>2.109080292228287e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.45833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>530637.1010069342</v>
+        <v>632885.3990738564</v>
       </c>
     </row>
     <row r="10">
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>424.9370618175966</v>
+        <v>507.5512130623709</v>
       </c>
       <c r="AB10" t="n">
-        <v>581.4176348789141</v>
+        <v>694.4539612911387</v>
       </c>
       <c r="AC10" t="n">
-        <v>525.9279518308456</v>
+        <v>628.1762498977679</v>
       </c>
       <c r="AD10" t="n">
-        <v>424937.0618175966</v>
+        <v>507551.2130623709</v>
       </c>
       <c r="AE10" t="n">
-        <v>581417.6348789141</v>
+        <v>694453.9612911388</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.243318982787818e-06</v>
+        <v>2.113559868059463e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.42361111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>525927.9518308456</v>
+        <v>628176.2498977679</v>
       </c>
     </row>
     <row r="11">
@@ -11119,28 +11119,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>426.1653660917024</v>
+        <v>508.7795173364768</v>
       </c>
       <c r="AB11" t="n">
-        <v>583.0982549757059</v>
+        <v>696.1345813879304</v>
       </c>
       <c r="AC11" t="n">
-        <v>527.4481759043646</v>
+        <v>629.6964739712868</v>
       </c>
       <c r="AD11" t="n">
-        <v>426165.3660917024</v>
+        <v>508779.5173364768</v>
       </c>
       <c r="AE11" t="n">
-        <v>583098.2549757059</v>
+        <v>696134.5813879304</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.243201342281536e-06</v>
+        <v>2.113359886995571e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>16.43229166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>527448.1759043646</v>
+        <v>629696.4739712868</v>
       </c>
     </row>
   </sheetData>
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>512.166766672702</v>
+        <v>608.1629789382214</v>
       </c>
       <c r="AB2" t="n">
-        <v>700.7691653646478</v>
+        <v>832.1154180403214</v>
       </c>
       <c r="AC2" t="n">
-        <v>633.888739757946</v>
+        <v>752.6994904238767</v>
       </c>
       <c r="AD2" t="n">
-        <v>512166.766672702</v>
+        <v>608162.9789382213</v>
       </c>
       <c r="AE2" t="n">
-        <v>700769.1653646479</v>
+        <v>832115.4180403214</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.097440868714013e-06</v>
+        <v>1.978945584635399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.13020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>633888.739757946</v>
+        <v>752699.4904238767</v>
       </c>
     </row>
     <row r="3">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>408.0801136164279</v>
+        <v>494.3828386662216</v>
       </c>
       <c r="AB3" t="n">
-        <v>558.3532146740067</v>
+        <v>676.4364104946502</v>
       </c>
       <c r="AC3" t="n">
-        <v>505.0647675191772</v>
+        <v>611.8782688615049</v>
       </c>
       <c r="AD3" t="n">
-        <v>408080.1136164279</v>
+        <v>494382.8386662217</v>
       </c>
       <c r="AE3" t="n">
-        <v>558353.2146740067</v>
+        <v>676436.4104946502</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.270883106436784e-06</v>
+        <v>2.291702982610712e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.38715277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>505064.7675191772</v>
+        <v>611878.268861505</v>
       </c>
     </row>
     <row r="4">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.8391482651639</v>
+        <v>457.2271246609782</v>
       </c>
       <c r="AB4" t="n">
-        <v>507.3984829249698</v>
+        <v>625.5983233982628</v>
       </c>
       <c r="AC4" t="n">
-        <v>458.9730838528533</v>
+        <v>565.8920974458932</v>
       </c>
       <c r="AD4" t="n">
-        <v>370839.1482651639</v>
+        <v>457227.1246609782</v>
       </c>
       <c r="AE4" t="n">
-        <v>507398.4829249698</v>
+        <v>625598.3233982627</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.329605038110755e-06</v>
+        <v>2.397592521373414e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.61458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>458973.0838528533</v>
+        <v>565892.0974458932</v>
       </c>
     </row>
     <row r="5">
@@ -11734,28 +11734,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>356.9793038256451</v>
+        <v>433.7592233688565</v>
       </c>
       <c r="AB5" t="n">
-        <v>488.4348323096378</v>
+        <v>593.4885055196468</v>
       </c>
       <c r="AC5" t="n">
-        <v>441.8192974365979</v>
+        <v>536.8467955192</v>
       </c>
       <c r="AD5" t="n">
-        <v>356979.3038256451</v>
+        <v>433759.2233688565</v>
       </c>
       <c r="AE5" t="n">
-        <v>488434.8323096378</v>
+        <v>593488.5055196468</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.350909874179724e-06</v>
+        <v>2.436010182380947e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>441819.2974365979</v>
+        <v>536846.7955192</v>
       </c>
     </row>
   </sheetData>
@@ -12031,28 +12031,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>408.1710708259375</v>
+        <v>500.6029349661283</v>
       </c>
       <c r="AB2" t="n">
-        <v>558.4776663408065</v>
+        <v>684.9470206634642</v>
       </c>
       <c r="AC2" t="n">
-        <v>505.1773416935667</v>
+        <v>619.5766383405238</v>
       </c>
       <c r="AD2" t="n">
-        <v>408171.0708259375</v>
+        <v>500602.9349661283</v>
       </c>
       <c r="AE2" t="n">
-        <v>558477.6663408065</v>
+        <v>684947.0206634642</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.239867719300509e-06</v>
+        <v>2.313196849502331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.55902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>505177.3416935668</v>
+        <v>619576.6383405238</v>
       </c>
     </row>
     <row r="3">
@@ -12137,28 +12137,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>334.9476647579809</v>
+        <v>418.1278083986955</v>
       </c>
       <c r="AB3" t="n">
-        <v>458.290171769942</v>
+        <v>572.1009139481142</v>
       </c>
       <c r="AC3" t="n">
-        <v>414.5516009905138</v>
+        <v>517.5004056695813</v>
       </c>
       <c r="AD3" t="n">
-        <v>334947.6647579809</v>
+        <v>418127.8083986955</v>
       </c>
       <c r="AE3" t="n">
-        <v>458290.171769942</v>
+        <v>572100.9139481143</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.388375034979953e-06</v>
+        <v>2.590264031275193e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.57986111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>414551.6009905138</v>
+        <v>517500.4056695812</v>
       </c>
     </row>
     <row r="4">
@@ -12243,28 +12243,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>327.4093286673548</v>
+        <v>401.3378413171441</v>
       </c>
       <c r="AB4" t="n">
-        <v>447.9758877628305</v>
+        <v>549.1281402660654</v>
       </c>
       <c r="AC4" t="n">
-        <v>405.2216977728525</v>
+        <v>496.7201212652568</v>
       </c>
       <c r="AD4" t="n">
-        <v>327409.3286673548</v>
+        <v>401337.8413171441</v>
       </c>
       <c r="AE4" t="n">
-        <v>447975.8877628305</v>
+        <v>549128.1402660655</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.404151120112834e-06</v>
+        <v>2.619697163422104e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.38888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>405221.6977728524</v>
+        <v>496720.1212652568</v>
       </c>
     </row>
   </sheetData>
@@ -21889,28 +21889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.0745774330931</v>
+        <v>422.7759812515274</v>
       </c>
       <c r="AB2" t="n">
-        <v>468.0415281092272</v>
+        <v>578.4607491082724</v>
       </c>
       <c r="AC2" t="n">
-        <v>423.3723015668923</v>
+        <v>523.2532670881386</v>
       </c>
       <c r="AD2" t="n">
-        <v>342074.5774330931</v>
+        <v>422775.9812515274</v>
       </c>
       <c r="AE2" t="n">
-        <v>468041.5281092272</v>
+        <v>578460.7491082724</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.354941018451857e-06</v>
+        <v>2.605601824584181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.56944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>423372.3015668923</v>
+        <v>523253.2670881386</v>
       </c>
     </row>
     <row r="3">
@@ -21995,28 +21995,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>306.7802382483323</v>
+        <v>387.396301212195</v>
       </c>
       <c r="AB3" t="n">
-        <v>419.7502561602857</v>
+        <v>530.0527100371332</v>
       </c>
       <c r="AC3" t="n">
-        <v>379.6898808355318</v>
+        <v>479.4652233248394</v>
       </c>
       <c r="AD3" t="n">
-        <v>306780.2382483323</v>
+        <v>387396.301212195</v>
       </c>
       <c r="AE3" t="n">
-        <v>419750.2561602857</v>
+        <v>530052.7100371332</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.433384972151701e-06</v>
+        <v>2.756452456533791e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.61458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>379689.8808355318</v>
+        <v>479465.2233248394</v>
       </c>
     </row>
   </sheetData>
@@ -22292,28 +22292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.5376617721394</v>
+        <v>350.156262523063</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.6345405834753</v>
+        <v>479.0992461881071</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.7845072365765</v>
+        <v>433.3746865519286</v>
       </c>
       <c r="AD2" t="n">
-        <v>274537.6617721394</v>
+        <v>350156.262523063</v>
       </c>
       <c r="AE2" t="n">
-        <v>375634.5405834753</v>
+        <v>479099.2461881071</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.454912688261797e-06</v>
+        <v>3.000901923450826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.56076388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>339784.5072365765</v>
+        <v>433374.6865519286</v>
       </c>
     </row>
   </sheetData>
@@ -22589,28 +22589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>610.92743254739</v>
+        <v>729.6794624804954</v>
       </c>
       <c r="AB2" t="n">
-        <v>835.8978654274719</v>
+        <v>998.3796317517595</v>
       </c>
       <c r="AC2" t="n">
-        <v>756.1209463410958</v>
+        <v>903.0956809319845</v>
       </c>
       <c r="AD2" t="n">
-        <v>610927.43254739</v>
+        <v>729679.4624804955</v>
       </c>
       <c r="AE2" t="n">
-        <v>835897.8654274718</v>
+        <v>998379.6317517594</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.806056656024565e-07</v>
+        <v>1.722885471751142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>756120.9463410957</v>
+        <v>903095.6809319844</v>
       </c>
     </row>
     <row r="3">
@@ -22695,28 +22695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>477.502885360218</v>
+        <v>566.6096677458841</v>
       </c>
       <c r="AB3" t="n">
-        <v>653.3405136903939</v>
+        <v>775.2603444642566</v>
       </c>
       <c r="AC3" t="n">
-        <v>590.9866120329521</v>
+        <v>701.2705852733145</v>
       </c>
       <c r="AD3" t="n">
-        <v>477502.8853602181</v>
+        <v>566609.667745884</v>
       </c>
       <c r="AE3" t="n">
-        <v>653340.5136903939</v>
+        <v>775260.3444642567</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.172782809678497e-06</v>
+        <v>2.060533132931867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.22048611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>590986.612032952</v>
+        <v>701270.5852733145</v>
       </c>
     </row>
     <row r="4">
@@ -22801,28 +22801,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>433.0213843804619</v>
+        <v>512.303281650512</v>
       </c>
       <c r="AB4" t="n">
-        <v>592.4789616645666</v>
+        <v>700.9559511799034</v>
       </c>
       <c r="AC4" t="n">
-        <v>535.9336011127448</v>
+        <v>634.0576989971489</v>
       </c>
       <c r="AD4" t="n">
-        <v>433021.3843804619</v>
+        <v>512303.281650512</v>
       </c>
       <c r="AE4" t="n">
-        <v>592478.9616645665</v>
+        <v>700955.9511799035</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.246763378208923e-06</v>
+        <v>2.190514073470949e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.14409722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>535933.6011127448</v>
+        <v>634057.6989971489</v>
       </c>
     </row>
     <row r="5">
@@ -22907,28 +22907,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>403.3417224188816</v>
+        <v>492.4484152959965</v>
       </c>
       <c r="AB5" t="n">
-        <v>551.8699387944574</v>
+        <v>673.789647098772</v>
       </c>
       <c r="AC5" t="n">
-        <v>499.2002463902375</v>
+        <v>609.4841088493735</v>
       </c>
       <c r="AD5" t="n">
-        <v>403341.7224188816</v>
+        <v>492448.4152959965</v>
       </c>
       <c r="AE5" t="n">
-        <v>551869.9387944575</v>
+        <v>673789.647098772</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.279605334421764e-06</v>
+        <v>2.248216094994788e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.70138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>499200.2463902375</v>
+        <v>609484.1088493734</v>
       </c>
     </row>
     <row r="6">
@@ -23013,28 +23013,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>386.3216021674054</v>
+        <v>465.5181585828839</v>
       </c>
       <c r="AB6" t="n">
-        <v>528.5822593916765</v>
+        <v>636.9424817848156</v>
       </c>
       <c r="AC6" t="n">
-        <v>478.1351104251946</v>
+        <v>576.1535852776598</v>
       </c>
       <c r="AD6" t="n">
-        <v>386321.6021674054</v>
+        <v>465518.1585828839</v>
       </c>
       <c r="AE6" t="n">
-        <v>528582.2593916765</v>
+        <v>636942.4817848157</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.30291967665082e-06</v>
+        <v>2.289178474592295e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.40625</v>
       </c>
       <c r="AH6" t="n">
-        <v>478135.1104251946</v>
+        <v>576153.5852776598</v>
       </c>
     </row>
     <row r="7">
@@ -23119,28 +23119,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>383.5437181494675</v>
+        <v>462.740274564946</v>
       </c>
       <c r="AB7" t="n">
-        <v>524.7814359267402</v>
+        <v>633.1416583198793</v>
       </c>
       <c r="AC7" t="n">
-        <v>474.6970322172626</v>
+        <v>572.7155070697279</v>
       </c>
       <c r="AD7" t="n">
-        <v>383543.7181494675</v>
+        <v>462740.2745649461</v>
       </c>
       <c r="AE7" t="n">
-        <v>524781.4359267402</v>
+        <v>633141.6583198793</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.308508225421671e-06</v>
+        <v>2.298997334326862e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>474697.0322172626</v>
+        <v>572715.5070697279</v>
       </c>
     </row>
   </sheetData>
@@ -23416,28 +23416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>775.7768682960218</v>
+        <v>898.7864982189881</v>
       </c>
       <c r="AB2" t="n">
-        <v>1061.452136062577</v>
+        <v>1229.759338525047</v>
       </c>
       <c r="AC2" t="n">
-        <v>960.1486339541939</v>
+        <v>1112.392833234288</v>
       </c>
       <c r="AD2" t="n">
-        <v>775776.8682960218</v>
+        <v>898786.4982189881</v>
       </c>
       <c r="AE2" t="n">
-        <v>1061452.136062577</v>
+        <v>1229759.338525047</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.477938478749091e-07</v>
+        <v>1.449632999688779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.28819444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>960148.6339541939</v>
+        <v>1112392.833234288</v>
       </c>
     </row>
     <row r="3">
@@ -23522,28 +23522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>567.9661124321227</v>
+        <v>670.374587955686</v>
       </c>
       <c r="AB3" t="n">
-        <v>777.1162919260845</v>
+        <v>917.2360860805035</v>
       </c>
       <c r="AC3" t="n">
-        <v>702.9494037142241</v>
+        <v>829.6963613739116</v>
       </c>
       <c r="AD3" t="n">
-        <v>567966.1124321227</v>
+        <v>670374.587955686</v>
       </c>
       <c r="AE3" t="n">
-        <v>777116.2919260846</v>
+        <v>917236.0860805034</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.061735109351737e-06</v>
+        <v>1.815448714687475e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.39236111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>702949.4037142241</v>
+        <v>829696.3613739116</v>
       </c>
     </row>
     <row r="4">
@@ -23628,28 +23628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>502.2114178957318</v>
+        <v>604.6198039107441</v>
       </c>
       <c r="AB4" t="n">
-        <v>687.1478179690063</v>
+        <v>827.2674896538767</v>
       </c>
       <c r="AC4" t="n">
-        <v>621.5673946400632</v>
+        <v>748.3142415185241</v>
       </c>
       <c r="AD4" t="n">
-        <v>502211.4178957317</v>
+        <v>604619.803910744</v>
       </c>
       <c r="AE4" t="n">
-        <v>687147.8179690063</v>
+        <v>827267.4896538767</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.145219174458963e-06</v>
+        <v>1.958197162356627e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.98611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>621567.3946400632</v>
+        <v>748314.2415185241</v>
       </c>
     </row>
     <row r="5">
@@ -23734,28 +23734,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>473.5649589158949</v>
+        <v>565.7155276670427</v>
       </c>
       <c r="AB5" t="n">
-        <v>647.9524690002173</v>
+        <v>774.0369425617097</v>
       </c>
       <c r="AC5" t="n">
-        <v>586.1127947658377</v>
+        <v>700.1639431312913</v>
       </c>
       <c r="AD5" t="n">
-        <v>473564.9589158949</v>
+        <v>565715.5276670427</v>
       </c>
       <c r="AE5" t="n">
-        <v>647952.4690002173</v>
+        <v>774036.9425617097</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.196937066454914e-06</v>
+        <v>2.046628994103928e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.20486111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>586112.7947658377</v>
+        <v>700163.9431312913</v>
       </c>
     </row>
     <row r="6">
@@ -23840,28 +23840,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>451.3239366324436</v>
+        <v>543.5597567296119</v>
       </c>
       <c r="AB6" t="n">
-        <v>617.5213211073461</v>
+        <v>743.7224393214876</v>
       </c>
       <c r="AC6" t="n">
-        <v>558.5859529174778</v>
+        <v>672.7426135336437</v>
       </c>
       <c r="AD6" t="n">
-        <v>451323.9366324436</v>
+        <v>543559.7567296119</v>
       </c>
       <c r="AE6" t="n">
-        <v>617521.3211073461</v>
+        <v>743722.4393214877</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.216485480677236e-06</v>
+        <v>2.08005460390199e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.92708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>558585.9529174778</v>
+        <v>672742.6135336438</v>
       </c>
     </row>
     <row r="7">
@@ -23946,28 +23946,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>437.3703688131605</v>
+        <v>529.606188910329</v>
       </c>
       <c r="AB7" t="n">
-        <v>598.4294340290369</v>
+        <v>724.6305522431787</v>
       </c>
       <c r="AC7" t="n">
-        <v>541.3161687462907</v>
+        <v>655.4728293624565</v>
       </c>
       <c r="AD7" t="n">
-        <v>437370.3688131605</v>
+        <v>529606.188910329</v>
       </c>
       <c r="AE7" t="n">
-        <v>598429.4340290369</v>
+        <v>724630.5522431787</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.234302057231805e-06</v>
+        <v>2.110518964288331e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.68402777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>541316.1687462907</v>
+        <v>655472.8293624566</v>
       </c>
     </row>
     <row r="8">
@@ -24052,28 +24052,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>424.9327521774549</v>
+        <v>517.1685722746233</v>
       </c>
       <c r="AB8" t="n">
-        <v>581.4117382391445</v>
+        <v>707.6128564532862</v>
       </c>
       <c r="AC8" t="n">
-        <v>525.9226179580994</v>
+        <v>640.0792785742655</v>
       </c>
       <c r="AD8" t="n">
-        <v>424932.7521774549</v>
+        <v>517168.5722746234</v>
       </c>
       <c r="AE8" t="n">
-        <v>581411.7382391444</v>
+        <v>707612.8564532863</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.246353749495081e-06</v>
+        <v>2.131126014989078e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.51909722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>525922.6179580995</v>
+        <v>640079.2785742654</v>
       </c>
     </row>
     <row r="9">
@@ -24158,28 +24158,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>417.1159518457196</v>
+        <v>499.0939546790236</v>
       </c>
       <c r="AB9" t="n">
-        <v>570.7164471723721</v>
+        <v>682.8823672631356</v>
       </c>
       <c r="AC9" t="n">
-        <v>516.2480704598046</v>
+        <v>617.7090325629632</v>
       </c>
       <c r="AD9" t="n">
-        <v>417115.9518457196</v>
+        <v>499093.9546790236</v>
       </c>
       <c r="AE9" t="n">
-        <v>570716.4471723721</v>
+        <v>682882.3672631356</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.255392518692539e-06</v>
+        <v>2.146581303014638e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.40625</v>
       </c>
       <c r="AH9" t="n">
-        <v>516248.0704598046</v>
+        <v>617709.0325629632</v>
       </c>
     </row>
   </sheetData>
@@ -24455,28 +24455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.0279181743331</v>
+        <v>345.321861987234</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.2546457357925</v>
+        <v>472.4846060962865</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.7770093708474</v>
+        <v>427.3913384267657</v>
       </c>
       <c r="AD2" t="n">
-        <v>264027.9181743331</v>
+        <v>345321.861987234</v>
       </c>
       <c r="AE2" t="n">
-        <v>361254.6457357925</v>
+        <v>472484.6060962866</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.410145382646136e-06</v>
+        <v>3.022591054523131e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.76736111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>326777.0093708474</v>
+        <v>427391.3384267658</v>
       </c>
     </row>
   </sheetData>
@@ -24752,28 +24752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>445.6220814299627</v>
+        <v>530.0263667142284</v>
       </c>
       <c r="AB2" t="n">
-        <v>609.7197912712138</v>
+        <v>725.2054580514102</v>
       </c>
       <c r="AC2" t="n">
-        <v>551.5289901393901</v>
+        <v>655.992866967236</v>
       </c>
       <c r="AD2" t="n">
-        <v>445622.0814299628</v>
+        <v>530026.3667142284</v>
       </c>
       <c r="AE2" t="n">
-        <v>609719.7912712138</v>
+        <v>725205.4580514103</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.189187932558326e-06</v>
+        <v>2.190998537298553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.07118055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>551528.9901393901</v>
+        <v>655992.8669672359</v>
       </c>
     </row>
     <row r="3">
@@ -24858,28 +24858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.3944538229953</v>
+        <v>441.7133087441382</v>
       </c>
       <c r="AB3" t="n">
-        <v>489.0028588511375</v>
+        <v>604.3716360395881</v>
       </c>
       <c r="AC3" t="n">
-        <v>442.3331123222071</v>
+        <v>546.6912553368877</v>
       </c>
       <c r="AD3" t="n">
-        <v>357394.4538229953</v>
+        <v>441713.3087441382</v>
       </c>
       <c r="AE3" t="n">
-        <v>489002.8588511376</v>
+        <v>604371.6360395881</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.344884441107675e-06</v>
+        <v>2.477858850251976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.86631944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>442333.1123222071</v>
+        <v>546691.2553368877</v>
       </c>
     </row>
     <row r="4">
@@ -24964,28 +24964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>337.8147178238332</v>
+        <v>412.7554182784477</v>
       </c>
       <c r="AB4" t="n">
-        <v>462.2130002600953</v>
+        <v>564.7501727724667</v>
       </c>
       <c r="AC4" t="n">
-        <v>418.1000402352914</v>
+        <v>510.8512089149074</v>
       </c>
       <c r="AD4" t="n">
-        <v>337814.7178238332</v>
+        <v>412755.4182784477</v>
       </c>
       <c r="AE4" t="n">
-        <v>462213.0002600953</v>
+        <v>564750.1727724667</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.386035976762185e-06</v>
+        <v>2.553677778411338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.36284722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>418100.0402352914</v>
+        <v>510851.2089149074</v>
       </c>
     </row>
     <row r="5">
@@ -25070,28 +25070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>339.1103663512363</v>
+        <v>414.051066805851</v>
       </c>
       <c r="AB5" t="n">
-        <v>463.9857637352673</v>
+        <v>566.5229362476387</v>
       </c>
       <c r="AC5" t="n">
-        <v>419.703613652482</v>
+        <v>512.4547823320981</v>
       </c>
       <c r="AD5" t="n">
-        <v>339110.3663512364</v>
+        <v>414051.0668058509</v>
       </c>
       <c r="AE5" t="n">
-        <v>463985.7637352673</v>
+        <v>566522.9362476387</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.385931464925602e-06</v>
+        <v>2.553485222403314e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.36284722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>419703.613652482</v>
+        <v>512454.7823320981</v>
       </c>
     </row>
   </sheetData>
@@ -25367,28 +25367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>541.4417923549076</v>
+        <v>648.2078581502622</v>
       </c>
       <c r="AB2" t="n">
-        <v>740.8245470260235</v>
+        <v>886.906588433622</v>
       </c>
       <c r="AC2" t="n">
-        <v>670.1212920116411</v>
+        <v>802.2614684147313</v>
       </c>
       <c r="AD2" t="n">
-        <v>541441.7923549076</v>
+        <v>648207.8581502622</v>
       </c>
       <c r="AE2" t="n">
-        <v>740824.5470260235</v>
+        <v>886906.588433622</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.055605461506195e-06</v>
+        <v>1.885762120709272e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.68576388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>670121.2920116411</v>
+        <v>802261.4684147313</v>
       </c>
     </row>
     <row r="3">
@@ -25473,28 +25473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>428.5965101698847</v>
+        <v>516.0203883380061</v>
       </c>
       <c r="AB3" t="n">
-        <v>586.4246535579821</v>
+        <v>706.0418605369061</v>
       </c>
       <c r="AC3" t="n">
-        <v>530.457107674578</v>
+        <v>638.6582163032381</v>
       </c>
       <c r="AD3" t="n">
-        <v>428596.5101698847</v>
+        <v>516020.3883380061</v>
       </c>
       <c r="AE3" t="n">
-        <v>586424.6535579821</v>
+        <v>706041.8605369062</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.235744886948748e-06</v>
+        <v>2.207568057996861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.67361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>530457.107674578</v>
+        <v>638658.2163032381</v>
       </c>
     </row>
     <row r="4">
@@ -25579,28 +25579,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>384.0178361426676</v>
+        <v>471.3563734562174</v>
       </c>
       <c r="AB4" t="n">
-        <v>525.4301450816463</v>
+        <v>644.9305849383728</v>
       </c>
       <c r="AC4" t="n">
-        <v>475.2838294808934</v>
+        <v>583.3793150776147</v>
       </c>
       <c r="AD4" t="n">
-        <v>384017.8361426676</v>
+        <v>471356.3734562174</v>
       </c>
       <c r="AE4" t="n">
-        <v>525430.1450816463</v>
+        <v>644930.5849383728</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.311916117257372e-06</v>
+        <v>2.343642402097799e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>475283.8294808934</v>
+        <v>583379.3150776147</v>
       </c>
     </row>
     <row r="5">
@@ -25685,28 +25685,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>368.0975856574832</v>
+        <v>445.7224482386816</v>
       </c>
       <c r="AB5" t="n">
-        <v>503.6473560159351</v>
+        <v>609.8571175667739</v>
       </c>
       <c r="AC5" t="n">
-        <v>455.5799592312773</v>
+        <v>551.6532102060406</v>
       </c>
       <c r="AD5" t="n">
-        <v>368097.5856574832</v>
+        <v>445722.4482386817</v>
       </c>
       <c r="AE5" t="n">
-        <v>503647.3560159351</v>
+        <v>609857.1175667739</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.334103377869064e-06</v>
+        <v>2.383278323992458e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.37152777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>455579.9592312772</v>
+        <v>551653.2102060406</v>
       </c>
     </row>
     <row r="6">
@@ -25791,28 +25791,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>366.8689507508779</v>
+        <v>444.4938133320763</v>
       </c>
       <c r="AB6" t="n">
-        <v>501.9662835331711</v>
+        <v>608.17604508401</v>
       </c>
       <c r="AC6" t="n">
-        <v>454.0593259468682</v>
+        <v>550.1325769216315</v>
       </c>
       <c r="AD6" t="n">
-        <v>366868.9507508779</v>
+        <v>444493.8133320763</v>
       </c>
       <c r="AE6" t="n">
-        <v>501966.2835331711</v>
+        <v>608176.04508401</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.334782579724524e-06</v>
+        <v>2.384491668540253e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.36284722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>454059.3259468682</v>
+        <v>550132.5769216316</v>
       </c>
     </row>
   </sheetData>
